--- a/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="13815" windowHeight="4050"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$15</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
   <si>
     <t>Idioma</t>
   </si>
@@ -76,16 +73,16 @@
     <t>aeHFOx8jV/A=</t>
   </si>
   <si>
+    <t>CIF</t>
+  </si>
+  <si>
+    <t>Prueba fallida</t>
+  </si>
+  <si>
     <t>EXW</t>
   </si>
   <si>
-    <t>Prueba fallida</t>
-  </si>
-  <si>
     <t>Prueba exitosa</t>
-  </si>
-  <si>
-    <t>CIF</t>
   </si>
 </sst>
 </file>
@@ -106,24 +103,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -153,14 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -472,7 +454,7 @@
     <col min="4" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,9 +507,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:17">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -536,10 +518,10 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -548,81 +530,81 @@
         <v>19</v>
       </c>
       <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>582</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="J2">
-        <v>438</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2" s="4">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>438</v>
-      </c>
-      <c r="N2">
-        <v>9</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
       <c r="E3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4">
+        <v>16</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K3">
         <v>10</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3">
         <v>3</v>
       </c>
       <c r="M3">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N3">
         <v>10</v>
       </c>
       <c r="O3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -631,9 +613,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:17">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -642,10 +624,10 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -653,149 +635,146 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>580</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>580</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>582</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
         <v>15</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>580</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>580</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>15</v>
+      </c>
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="J4" s="2">
-        <v>438</v>
-      </c>
-      <c r="K4" s="2">
-        <v>7</v>
-      </c>
-      <c r="L4" s="2">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2">
-        <v>580</v>
-      </c>
-      <c r="N4" s="2">
-        <v>10</v>
-      </c>
-      <c r="O4" s="2">
-        <v>15</v>
-      </c>
-      <c r="P4" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>438</v>
-      </c>
-      <c r="K5" s="2">
-        <v>9</v>
-      </c>
-      <c r="L5" s="2">
-        <v>7</v>
-      </c>
-      <c r="M5" s="2">
-        <v>312</v>
-      </c>
-      <c r="N5" s="2">
-        <v>9</v>
-      </c>
-      <c r="O5" s="2">
-        <v>20</v>
-      </c>
-      <c r="P5" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2">
-        <v>8</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>438</v>
-      </c>
-      <c r="K6" s="2">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>8</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -813,31 +792,31 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7">
-        <v>18</v>
-      </c>
-      <c r="I7" s="4">
+        <v>15</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
       <c r="J7">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K7">
         <v>10</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7">
         <v>3</v>
       </c>
       <c r="M7">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N7">
         <v>10</v>
       </c>
       <c r="O7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -846,9 +825,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:17">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -857,120 +836,116 @@
         <v>18</v>
       </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>580</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>582</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>16</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>580</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="3">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4">
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="J8" s="3">
-        <v>438</v>
-      </c>
-      <c r="K8" s="3">
-        <v>7</v>
-      </c>
-      <c r="L8" s="4">
-        <v>2</v>
-      </c>
-      <c r="M8" s="3">
-        <v>438</v>
-      </c>
-      <c r="N8" s="3">
-        <v>7</v>
-      </c>
-      <c r="O8" s="3">
-        <v>15</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2">
-        <v>15</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3</v>
-      </c>
-      <c r="J9" s="2">
-        <v>580</v>
-      </c>
-      <c r="K9" s="2">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2">
-        <v>438</v>
-      </c>
-      <c r="N9" s="2">
-        <v>7</v>
-      </c>
-      <c r="O9" s="2">
-        <v>15</v>
-      </c>
-      <c r="P9" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -978,107 +953,105 @@
       <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>580</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>580</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>17</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="I10" s="2">
-        <v>7</v>
-      </c>
-      <c r="J10" s="2">
-        <v>312</v>
-      </c>
-      <c r="K10" s="2">
-        <v>18</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>7</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>582</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
         <v>22</v>
       </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="I11" s="4">
-        <v>7</v>
-      </c>
-      <c r="J11">
-        <v>312</v>
-      </c>
-      <c r="K11">
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
         <v>9</v>
-      </c>
-      <c r="L11" s="4">
-        <v>7</v>
-      </c>
-      <c r="M11">
-        <v>312</v>
-      </c>
-      <c r="N11">
-        <v>9</v>
-      </c>
-      <c r="O11">
-        <v>20</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1086,38 +1059,38 @@
       <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="2">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2">
-        <v>7</v>
-      </c>
-      <c r="J12" s="2">
-        <v>312</v>
-      </c>
-      <c r="K12" s="2">
-        <v>9</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="H12">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>582</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>580</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>17</v>
+      </c>
+      <c r="P12">
         <v>2</v>
       </c>
-      <c r="M12" s="2">
-        <v>438</v>
-      </c>
-      <c r="N12" s="2">
-        <v>9</v>
-      </c>
-      <c r="O12" s="2">
-        <v>20</v>
-      </c>
-      <c r="P12" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="Q12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1128,21 +1101,21 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H13">
         <v>16</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13">
         <v>3</v>
       </c>
       <c r="J13">
@@ -1151,7 +1124,7 @@
       <c r="K13">
         <v>10</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13">
         <v>3</v>
       </c>
       <c r="M13">
@@ -1170,7 +1143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1181,103 +1154,49 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="2">
-        <v>11</v>
-      </c>
-      <c r="I14" s="2">
-        <v>3</v>
-      </c>
-      <c r="J14" s="2">
-        <v>580</v>
-      </c>
-      <c r="K14" s="2">
-        <v>20</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>11</v>
-      </c>
-      <c r="P14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15">
-        <v>15</v>
-      </c>
-      <c r="I15" s="4">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>580</v>
-      </c>
-      <c r="K15">
-        <v>10</v>
-      </c>
-      <c r="L15" s="4">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>580</v>
-      </c>
-      <c r="N15">
-        <v>10</v>
-      </c>
-      <c r="O15">
-        <v>15</v>
-      </c>
-      <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>20</v>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>312</v>
+      </c>
+      <c r="K14">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B535CCA-9424-4AB3-BF48-AD4C28120576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="18612" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>Idioma</t>
   </si>
@@ -83,13 +89,19 @@
   </si>
   <si>
     <t>Prueba exitosa</t>
+  </si>
+  <si>
+    <t>jormar.turizo@corpalcione.com</t>
+  </si>
+  <si>
+    <t>MnWdBOQ5x9U=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,11 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,6 +165,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -441,20 +457,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="20" customWidth="1"/>
     <col min="4" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -560,15 +576,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -613,7 +629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -666,7 +682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -719,7 +735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -772,7 +788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -825,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -878,7 +894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -931,7 +947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -984,7 +1000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1037,7 +1053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1090,7 +1106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1143,7 +1159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1198,5 +1214,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B535CCA-9424-4AB3-BF48-AD4C28120576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22130015-4B1B-483A-97B5-7EDEF3D4D150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="18612" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$10</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Idioma</t>
   </si>
@@ -79,22 +82,13 @@
     <t>aeHFOx8jV/A=</t>
   </si>
   <si>
+    <t>EXW</t>
+  </si>
+  <si>
     <t>CIF</t>
   </si>
   <si>
-    <t>Prueba fallida</t>
-  </si>
-  <si>
-    <t>EXW</t>
-  </si>
-  <si>
     <t>Prueba exitosa</t>
-  </si>
-  <si>
-    <t>jormar.turizo@corpalcione.com</t>
-  </si>
-  <si>
-    <t>MnWdBOQ5x9U=</t>
   </si>
 </sst>
 </file>
@@ -150,12 +144,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,13 +451,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="20" customWidth="1"/>
     <col min="4" max="16" width="15" customWidth="1"/>
@@ -534,16 +528,16 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -552,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K2">
         <v>20</v>
@@ -573,33 +567,33 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -608,136 +602,32 @@
         <v>582</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>580</v>
-      </c>
-      <c r="K4">
-        <v>20</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>11</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>580</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>582</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>17</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -758,34 +648,34 @@
         <v>19</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>580</v>
+        <v>312</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -808,10 +698,10 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -820,136 +710,32 @@
         <v>582</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8">
-        <v>16</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>580</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>582</v>
-      </c>
-      <c r="N8">
-        <v>10</v>
-      </c>
-      <c r="O8">
-        <v>16</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>580</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>11</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -958,10 +744,10 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -970,7 +756,7 @@
         <v>19</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -979,241 +765,35 @@
         <v>580</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
         <v>21</v>
-      </c>
-      <c r="H11">
-        <v>11</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>582</v>
-      </c>
-      <c r="K11">
-        <v>20</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>11</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12">
-        <v>17</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>582</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>580</v>
-      </c>
-      <c r="N12">
-        <v>10</v>
-      </c>
-      <c r="O12">
-        <v>17</v>
-      </c>
-      <c r="P12">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13">
-        <v>16</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>580</v>
-      </c>
-      <c r="K13">
-        <v>10</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>580</v>
-      </c>
-      <c r="N13">
-        <v>10</v>
-      </c>
-      <c r="O13">
-        <v>16</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14">
-        <v>7</v>
-      </c>
-      <c r="I14">
-        <v>7</v>
-      </c>
-      <c r="J14">
-        <v>312</v>
-      </c>
-      <c r="K14">
-        <v>18</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>7</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q10" xr:uid="{58404D6D-11F1-48FF-911C-A4FA50E0899B}">
+    <filterColumn colId="16">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
@@ -1,114 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3445644D-5EED-4737-9380-95553936D9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
-  <si>
-    <t>Idioma</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Contrasena</t>
-  </si>
-  <si>
-    <t>ID_Cliente</t>
-  </si>
-  <si>
-    <t>ID_Direccion</t>
-  </si>
-  <si>
-    <t>Contenedor</t>
-  </si>
-  <si>
-    <t>Incoterms</t>
-  </si>
-  <si>
-    <t>OpCompra</t>
-  </si>
-  <si>
-    <t>Presentacion</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Presentacion2</t>
-  </si>
-  <si>
-    <t>Producto2</t>
-  </si>
-  <si>
-    <t>Cantidad2</t>
-  </si>
-  <si>
-    <t>OpCompra2</t>
-  </si>
-  <si>
-    <t>Iterar</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
-    <t>automated.test@grupokaizen.net</t>
-  </si>
-  <si>
-    <t>aeHFOx8jV/A=</t>
-  </si>
-  <si>
-    <t>EXW</t>
-  </si>
-  <si>
-    <t>Prueba fallida</t>
-  </si>
-  <si>
-    <t>Prueba exitosa</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -142,24 +57,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -447,176 +353,406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="16" width="15" customWidth="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Idioma</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Contrasena</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ID_Cliente</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ID_Direccion</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Contenedor</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Incoterms</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>OpCompra</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Presentacion</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Producto</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Presentacion2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Producto2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Iterar</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Resultado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>312</v>
+      </c>
+      <c r="K2" t="n">
+        <v>18</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>580</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>580</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>582</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>582</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>312</v>
-      </c>
-      <c r="K2">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>7</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>580</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>582</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>15</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
@@ -1,111 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4101BF3D-B477-44B8-99B3-995B179FBB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
-  <si>
-    <t>Idioma</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Contrasena</t>
-  </si>
-  <si>
-    <t>ID_Cliente</t>
-  </si>
-  <si>
-    <t>ID_Direccion</t>
-  </si>
-  <si>
-    <t>Contenedor</t>
-  </si>
-  <si>
-    <t>Incoterms</t>
-  </si>
-  <si>
-    <t>OpCompra</t>
-  </si>
-  <si>
-    <t>Presentacion</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Presentacion2</t>
-  </si>
-  <si>
-    <t>Producto2</t>
-  </si>
-  <si>
-    <t>Cantidad2</t>
-  </si>
-  <si>
-    <t>Iterar</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
-    <t>automated.test@grupokaizen.net</t>
-  </si>
-  <si>
-    <t>aeHFOx8jV/A=</t>
-  </si>
-  <si>
-    <t>EXW</t>
-  </si>
-  <si>
-    <t>CIF</t>
-  </si>
-  <si>
-    <t>Prueba exitosa</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -139,24 +69,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -444,220 +365,815 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="16" width="15" customWidth="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Idioma</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Contrasena</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ID_Cliente</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ID_Direccion</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Contenedor</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Incoterms</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>OpCompra</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Presentacion</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Producto</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Presentacion2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Producto2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Iterar</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Resultado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>572</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>582</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>582</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>312</v>
+      </c>
+      <c r="K5" t="n">
+        <v>18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Prueba fallida</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Prueba fallida</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>11</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>572</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>572</v>
+      </c>
+      <c r="K9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>580</v>
+      </c>
+      <c r="K10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>580</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>582</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>automated.test@grupokaizen.net</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>aeHFOx8jV/A=</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>EXW</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>11</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
         <v>580</v>
       </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>582</v>
-      </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>582</v>
-      </c>
-      <c r="K4">
-        <v>20</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>20</v>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Prueba exitosa</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700659E5-8ABB-416E-B907-6929B52BDFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="3444" windowWidth="21504" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>Idioma</t>
   </si>
@@ -76,20 +70,23 @@
     <t>aeHFOx8jV/A=</t>
   </si>
   <si>
+    <t>EXW</t>
+  </si>
+  <si>
     <t>CIF</t>
   </si>
   <si>
-    <t>EXW</t>
-  </si>
-  <si>
     <t>Prueba exitosa</t>
+  </si>
+  <si>
+    <t>Prueba fallida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,19 +149,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,27 +227,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,24 +261,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,16 +436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,9 +493,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -553,10 +504,10 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -565,16 +516,16 @@
         <v>18</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>582</v>
+        <v>312</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -592,9 +543,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -603,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -621,24 +572,524 @@
         <v>3</v>
       </c>
       <c r="J3">
+        <v>572</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>572</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
         <v>582</v>
       </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>580</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>572</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>582</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>580</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>580</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>582</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
@@ -545,7 +545,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -554,16 +554,16 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="K3">
         <v>20</v>
@@ -604,10 +604,10 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -622,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="K4">
         <v>20</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -654,28 +654,28 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -687,15 +687,15 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -704,16 +704,16 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="K6">
         <v>20</v>
@@ -754,10 +754,10 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -772,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="J7">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K7">
         <v>20</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -804,16 +804,16 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="J8">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="K8">
         <v>20</v>
@@ -854,10 +854,10 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -866,16 +866,16 @@
         <v>18</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -904,10 +904,10 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -922,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="J10">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="K10">
         <v>20</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -954,28 +954,28 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -987,15 +987,15 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1004,28 +1004,28 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1054,10 +1054,10 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1072,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="J13">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K13">
         <v>20</v>

--- a/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B702320-BBF7-4EDC-AFEF-6CA77071D56F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Idioma</t>
   </si>
@@ -77,16 +83,13 @@
   </si>
   <si>
     <t>Prueba exitosa</t>
-  </si>
-  <si>
-    <t>Prueba fallida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,11 +152,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -195,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +238,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,6 +290,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,14 +483,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -504,10 +553,10 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -516,16 +565,16 @@
         <v>18</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>312</v>
+        <v>572</v>
       </c>
       <c r="K2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -543,9 +592,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -554,16 +603,16 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -572,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K3">
         <v>20</v>
@@ -593,7 +642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -604,10 +653,10 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -616,16 +665,16 @@
         <v>18</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>582</v>
+        <v>312</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -643,7 +692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -654,10 +703,10 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -672,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K5">
         <v>20</v>
@@ -690,406 +739,6 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>572</v>
-      </c>
-      <c r="K6">
-        <v>20</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>582</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>580</v>
-      </c>
-      <c r="K8">
-        <v>20</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>572</v>
-      </c>
-      <c r="K10">
-        <v>20</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>572</v>
-      </c>
-      <c r="K12">
-        <v>20</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>580</v>
-      </c>
-      <c r="K13">
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B702320-BBF7-4EDC-AFEF-6CA77071D56F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A053FC19-F002-4110-BAC9-AA1490FA7309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Idioma</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>EXW</t>
-  </si>
-  <si>
-    <t>CIF</t>
   </si>
   <si>
     <t>Prueba exitosa</t>
@@ -484,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,157 +586,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>580</v>
-      </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>312</v>
-      </c>
-      <c r="K4">
-        <v>18</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>582</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A053FC19-F002-4110-BAC9-AA1490FA7309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033DD88C-6889-4B93-B16D-414AC22EB22B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="324" yWindow="1512" windowWidth="22716" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>aeHFOx8jV/A=</t>
   </si>
   <si>
-    <t>EXW</t>
+    <t>CIF</t>
   </si>
   <si>
     <t>Prueba exitosa</t>
@@ -484,7 +484,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="P13" sqref="A3:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -550,10 +550,10 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>20</v>

--- a/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
+++ b/Pedidos/DataExcel/Crear_Pedido20pies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaizen\git\AutomatizacionKatalon\Pedidos\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033DD88C-6889-4B93-B16D-414AC22EB22B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456C629B-F8A3-4AEC-9D9A-6FAB32AE5363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="1512" windowWidth="22716" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Idioma</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>CIF</t>
+  </si>
+  <si>
+    <t>EXW</t>
   </si>
   <si>
     <t>Prueba exitosa</t>
@@ -481,13 +484,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="A3:P13"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -550,10 +556,10 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -568,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="K2">
         <v>20</v>
@@ -586,7 +592,57 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>312</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
